--- a/CRA_Efficiency_Calculator.xlsx
+++ b/CRA_Efficiency_Calculator.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MurrayS\Documents\GitHub\vehicleTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5A92E-DA1B-4293-898E-59D938389A4D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regen Plot" sheetId="3" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="88">
   <si>
     <t>CRA_A2_031_EFFY_MA</t>
   </si>
@@ -338,6 +339,9 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>10500 speed interpolated</t>
   </si>
 </sst>
 </file>
@@ -8752,7 +8756,7 @@
                   <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10500</c:v>
+                  <c:v>9235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8884,7 +8888,7 @@
                   <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10500</c:v>
+                  <c:v>9235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8992,7 +8996,7 @@
                   <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10500</c:v>
+                  <c:v>9235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9022,7 +9026,7 @@
                   <c:v>64.702163321879937</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.377922628479837</c:v>
+                  <c:v>60.015829109861443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9374,7 +9378,7 @@
                   <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8600</c:v>
+                  <c:v>7335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9543,7 +9547,7 @@
                   <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8600</c:v>
+                  <c:v>7335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -59708,8 +59712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB749593-6C30-4A6C-B318-7EE63A8BD27D}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59772,6 +59776,10 @@
       <c r="D3" s="6">
         <v>3.7</v>
       </c>
+      <c r="G3">
+        <f>B3*2*PI()/60</f>
+        <v>157.07963267948966</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -59786,6 +59794,10 @@
       <c r="D4" s="6">
         <v>7.1</v>
       </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="0">B4*2*PI()/60</f>
+        <v>157.07963267948966</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -59800,6 +59812,10 @@
       <c r="D5" s="6">
         <v>10.1</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>157.07963267948966</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -59814,6 +59830,10 @@
       <c r="D6" s="6">
         <v>13.7</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>157.07963267948966</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -59828,6 +59848,10 @@
       <c r="D7" s="6">
         <v>17</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>157.07963267948966</v>
+      </c>
       <c r="J7" t="s">
         <v>62</v>
       </c>
@@ -59857,6 +59881,10 @@
       <c r="D8" s="6">
         <v>20.2</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>157.07963267948966</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -59888,7 +59916,7 @@
         <v>1500</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:K16" si="0">J9-1900</f>
+        <f t="shared" ref="K9:K16" si="1">J9-1900</f>
         <v>-400</v>
       </c>
       <c r="L9">
@@ -59912,7 +59940,7 @@
         <v>1900</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10">
@@ -59951,18 +59979,18 @@
         <v>3000</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
       <c r="L11">
         <v>200</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M16" si="1">L11</f>
+        <f t="shared" ref="M11:M16" si="2">L11</f>
         <v>200</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N16" si="2" xml:space="preserve"> -0.00000000109237092*K11^3 + 0.000017567787*K11^2 - 0.10280541*K11+ 300</f>
+        <f t="shared" ref="N11:N16" si="3" xml:space="preserve"> -0.00000000109237092*K11^3 + 0.000017567787*K11^2 - 0.10280541*K11+ 300</f>
         <v>206.71712557548</v>
       </c>
       <c r="P11" t="s">
@@ -59990,18 +60018,18 @@
         <v>4500</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2600</v>
       </c>
       <c r="L12">
         <v>136.69999999999999</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>136.69999999999999</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132.26466283008</v>
       </c>
       <c r="P12" t="s">
@@ -60029,18 +60057,18 @@
         <v>6000</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4100</v>
       </c>
       <c r="L13">
         <v>100.9</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.9</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98.525022292679978</v>
       </c>
     </row>
@@ -60061,18 +60089,18 @@
         <v>7500</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5600</v>
       </c>
       <c r="L14">
         <v>79</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83.377692833280037</v>
       </c>
       <c r="P14" t="s">
@@ -60099,18 +60127,18 @@
         <v>9000</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7100</v>
       </c>
       <c r="L15">
         <v>66.2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64.702163321879937</v>
       </c>
       <c r="P15">
@@ -60138,28 +60166,28 @@
         <v>48.4</v>
       </c>
       <c r="J16">
-        <v>10500</v>
+        <v>9235</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
-        <v>8600</v>
+        <f t="shared" si="1"/>
+        <v>7335</v>
       </c>
       <c r="L16">
         <v>60</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
-        <v>20.377922628479837</v>
+        <f t="shared" si="3"/>
+        <v>60.015829109861443</v>
       </c>
       <c r="P16">
         <v>10520</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16:Q20" si="3">$Q$11*P16+$Q$12</f>
+        <f t="shared" ref="Q16:Q20" si="4">$Q$11*P16+$Q$12</f>
         <v>45.89990834055061</v>
       </c>
       <c r="V16" t="s">
@@ -60183,7 +60211,7 @@
         <v>10540</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.424931255412957</v>
       </c>
     </row>
@@ -60204,7 +60232,7 @@
         <v>10560</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.949954170275305</v>
       </c>
     </row>
@@ -60225,7 +60253,7 @@
         <v>10580</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.474977085137652</v>
       </c>
     </row>
@@ -60246,7 +60274,7 @@
         <v>10600</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -60427,7 +60455,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>40.39</v>
       </c>
@@ -60441,7 +60469,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>59.45</v>
       </c>
@@ -60458,7 +60486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>80.63</v>
       </c>
@@ -60472,7 +60500,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>100.86</v>
       </c>
@@ -60489,7 +60517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>21.41</v>
       </c>
@@ -60503,7 +60531,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>40.47</v>
       </c>
@@ -60517,7 +60545,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>60.9</v>
       </c>
@@ -60531,7 +60559,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>78.98</v>
       </c>
@@ -60548,7 +60576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>31.75</v>
       </c>
@@ -60562,7 +60590,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>41.16</v>
       </c>
@@ -60576,7 +60604,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>50.74</v>
       </c>
@@ -60590,7 +60618,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>59.67</v>
       </c>
@@ -60604,7 +60632,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>66.209999999999994</v>
       </c>
@@ -60621,47 +60649,89 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>2</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>31.75</v>
+      </c>
+      <c r="B46" s="11">
+        <v>10500</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.89037761415982664</v>
+      </c>
+      <c r="F46" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>62</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>41.16</v>
+      </c>
+      <c r="B47" s="11">
+        <v>10500</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.89786214802995279</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>50.74</v>
+      </c>
+      <c r="B48" s="11">
+        <v>10500</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.91264095551562585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>59.67</v>
+      </c>
+      <c r="B49" s="11">
+        <v>10500</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0.91750854578988705</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1500</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3000</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>6000</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>7500</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>9000</v>
       </c>
